--- a/Docs/2015-TH-XLP  给分细则.xlsx
+++ b/Docs/2015-TH-XLP  给分细则.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="152">
   <si>
     <t>第1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1437,6 +1437,11 @@
 最佳个人奖：根据得分情况，参与度，活跃度等等各种因素评判
 得奖者得5分</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据顾老师的点评打分（15分）
+严格控制时间在要求时间之内，超时者不得分（5分）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1882,33 +1887,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1916,15 +1894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1935,6 +1904,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2243,10 +2248,10 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2299,10 +2304,10 @@
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="11" t="s">
         <v>94</v>
       </c>
@@ -2312,7 +2317,7 @@
       <c r="F3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="39" t="s">
         <v>138</v>
       </c>
       <c r="H3" s="13"/>
@@ -2321,42 +2326,42 @@
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="37"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="66" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="11" t="s">
         <v>98</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9" s="14" customFormat="1" ht="109.5" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -2373,10 +2378,10 @@
       <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="11" t="s">
         <v>97</v>
       </c>
@@ -2391,16 +2396,16 @@
       <c r="A8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="27" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="22"/>
@@ -2409,16 +2414,16 @@
       <c r="A9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="11" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="28" t="s">
         <v>139</v>
       </c>
       <c r="H9" s="22"/>
@@ -2428,16 +2433,16 @@
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="22"/>
       <c r="I10" s="17"/>
     </row>
@@ -2445,20 +2450,20 @@
       <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="10">
         <v>8</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="22"/>
       <c r="I11" s="17"/>
     </row>
@@ -2466,10 +2471,10 @@
       <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="11" t="s">
         <v>100</v>
       </c>
@@ -2479,7 +2484,7 @@
       <c r="F12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="23"/>
       <c r="I12" s="17"/>
     </row>
@@ -2487,10 +2492,10 @@
       <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="11" t="s">
         <v>101</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -2507,10 +2512,10 @@
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="11" t="s">
         <v>99</v>
       </c>
@@ -2523,16 +2528,16 @@
       <c r="A15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="30" t="s">
         <v>140</v>
       </c>
       <c r="H15" s="16"/>
@@ -2541,10 +2546,10 @@
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="11" t="s">
         <v>100</v>
       </c>
@@ -2554,17 +2559,17 @@
       <c r="F16" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="14" customFormat="1" ht="159" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="11" t="s">
         <v>103</v>
       </c>
@@ -2574,17 +2579,17 @@
       <c r="F17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" s="14" customFormat="1" ht="126.75" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="11" t="s">
         <v>101</v>
       </c>
@@ -2601,10 +2606,10 @@
       <c r="A19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="11" t="s">
         <v>96</v>
       </c>
@@ -2617,10 +2622,10 @@
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="11" t="s">
         <v>106</v>
       </c>
@@ -2639,8 +2644,8 @@
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="10"/>
       <c r="F21" s="12"/>
@@ -2651,10 +2656,10 @@
       <c r="A22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="11" t="s">
         <v>107</v>
       </c>
@@ -2673,10 +2678,10 @@
       <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="11" t="s">
         <v>109</v>
       </c>
@@ -2693,16 +2698,16 @@
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="25" t="s">
         <v>133</v>
       </c>
       <c r="H24" s="16"/>
@@ -2711,10 +2716,10 @@
       <c r="A25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="11" t="s">
         <v>110</v>
       </c>
@@ -2727,10 +2732,10 @@
       <c r="A26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="11" t="s">
         <v>107</v>
       </c>
@@ -2747,10 +2752,10 @@
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="11" t="s">
         <v>107</v>
       </c>
@@ -2763,10 +2768,10 @@
       <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="11" t="s">
         <v>112</v>
       </c>
@@ -2779,10 +2784,10 @@
       <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="11" t="s">
         <v>113</v>
       </c>
@@ -2799,10 +2804,10 @@
       <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
         <v>114</v>
       </c>
@@ -2815,10 +2820,10 @@
       <c r="A31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="11" t="s">
         <v>116</v>
       </c>
@@ -2835,10 +2840,10 @@
       <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="11" t="s">
         <v>118</v>
       </c>
@@ -2857,8 +2862,8 @@
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="11"/>
       <c r="E33" s="10"/>
       <c r="F33" s="12"/>
@@ -2869,10 +2874,10 @@
       <c r="A34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="11" t="s">
         <v>107</v>
       </c>
@@ -2889,10 +2894,10 @@
       <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="11" t="s">
         <v>113</v>
       </c>
@@ -2909,10 +2914,10 @@
       <c r="A36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="11" t="s">
         <v>120</v>
       </c>
@@ -2927,10 +2932,10 @@
       <c r="A37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="11" t="s">
         <v>121</v>
       </c>
@@ -2947,10 +2952,10 @@
       <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="11" t="s">
         <v>111</v>
       </c>
@@ -2963,15 +2968,15 @@
       <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="26" t="s">
         <v>147</v>
       </c>
       <c r="G39" s="16"/>
@@ -2981,10 +2986,10 @@
       <c r="A40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="11" t="s">
         <v>122</v>
       </c>
@@ -3001,10 +3006,10 @@
       <c r="A41" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="11" t="s">
         <v>118</v>
       </c>
@@ -3021,8 +3026,8 @@
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="11"/>
       <c r="E42" s="10"/>
       <c r="F42" s="12"/>
@@ -3033,10 +3038,10 @@
       <c r="A43" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="11" t="s">
         <v>107</v>
       </c>
@@ -3055,10 +3060,10 @@
       <c r="A44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="11" t="s">
         <v>124</v>
       </c>
@@ -3075,10 +3080,10 @@
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="11" t="s">
         <v>124</v>
       </c>
@@ -3095,10 +3100,10 @@
       <c r="A46" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="11" t="s">
         <v>124</v>
       </c>
@@ -3115,10 +3120,10 @@
       <c r="A47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="11" t="s">
         <v>114</v>
       </c>
@@ -3131,10 +3136,10 @@
       <c r="A48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="1" t="s">
         <v>116</v>
       </c>
@@ -3149,10 +3154,10 @@
     </row>
     <row r="49" spans="1:8" s="14" customFormat="1" ht="102" customHeight="1">
       <c r="A49" s="15"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="8"/>
@@ -3161,6 +3166,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B21:C21"/>
@@ -3177,39 +3215,6 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/2015-TH-XLP  给分细则.xlsx
+++ b/Docs/2015-TH-XLP  给分细则.xlsx
@@ -610,88 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>货币市场交易记分（40分）分为三部分
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>交易次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（5分）：所有收税交易都算作交易次数
-交易次数给分规则：以交易次数最多者为100%，该人得5分，交易次数在90%~100%之间的得4.5分，以此类推
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>交易总金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（15分）：所有收税交易对应的金
-额总和为交易总金额
-交易总金额给分规则：以交易次数最多者为100%，该人得15分，交易次数在90%~100%之间的得13.5分，以此类推
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货币剩余量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（20分）：最后活动结束时每个人手头的货币剩余量
-货币剩余量给分规则：以货币剩余量最多者为100%，该人得20分，交易次数在90%~100%之间的得18分，以此类推</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t> Git技术团队依据团队现场游戏排名来计分，团队得分即为个人得分
    第1名8分，第二名7分以此类推</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1442,6 +1360,63 @@
   <si>
     <t>根据顾老师的点评打分（15分）
 严格控制时间在要求时间之内，超时者不得分（5分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>货币市场交易记分（40分）分为三部分
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交易总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（20分）：所有收税交易对应的金
+额总和为交易总金额
+交易总金额给分规则：以交易次数最多者为100%，该人得15分，交易次数在90%~100%之间的得13.5分，以此类推
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币剩余量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（20分）：最后活动结束时每个人手头的货币剩余量
+货币剩余量给分规则：以货币剩余量最多者为100%，该人得20分，交易次数在90%~100%之间的得18分，以此类推</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1905,6 +1880,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,18 +1899,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2248,10 +2223,10 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2304,10 +2279,10 @@
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="11" t="s">
         <v>94</v>
       </c>
@@ -2318,7 +2293,7 @@
         <v>95</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -2326,10 +2301,10 @@
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="11" t="s">
         <v>96</v>
       </c>
@@ -2342,10 +2317,10 @@
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="11" t="s">
         <v>98</v>
       </c>
@@ -2378,17 +2353,17 @@
       <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="11" t="s">
         <v>97</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H7" s="21"/>
     </row>
@@ -2396,17 +2371,17 @@
       <c r="A8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="12"/>
       <c r="G8" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="22"/>
     </row>
@@ -2414,17 +2389,17 @@
       <c r="A9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="11" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="12"/>
       <c r="G9" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="17"/>
@@ -2433,10 +2408,10 @@
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="11" t="s">
         <v>96</v>
       </c>
@@ -2450,10 +2425,10 @@
       <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="11" t="s">
         <v>101</v>
       </c>
@@ -2461,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="22"/>
@@ -2471,10 +2446,10 @@
       <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="11" t="s">
         <v>100</v>
       </c>
@@ -2482,7 +2457,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="23"/>
@@ -2492,10 +2467,10 @@
       <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="11" t="s">
         <v>101</v>
       </c>
@@ -2503,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -2512,10 +2487,10 @@
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="11" t="s">
         <v>99</v>
       </c>
@@ -2528,17 +2503,17 @@
       <c r="A15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="30" t="s">
-        <v>140</v>
+      <c r="G15" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="H15" s="16"/>
     </row>
@@ -2546,10 +2521,10 @@
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="11" t="s">
         <v>100</v>
       </c>
@@ -2557,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="31"/>
+        <v>128</v>
+      </c>
+      <c r="G16" s="35"/>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="14" customFormat="1" ht="159" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="11" t="s">
         <v>103</v>
       </c>
@@ -2577,19 +2552,19 @@
         <v>12</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="32"/>
+        <v>142</v>
+      </c>
+      <c r="G17" s="36"/>
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" s="14" customFormat="1" ht="126.75" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="11" t="s">
         <v>101</v>
       </c>
@@ -2597,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -2606,10 +2581,10 @@
       <c r="A19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="11" t="s">
         <v>96</v>
       </c>
@@ -2622,10 +2597,10 @@
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="11" t="s">
         <v>106</v>
       </c>
@@ -2633,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>125</v>
@@ -2644,8 +2619,8 @@
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="11"/>
       <c r="E21" s="10"/>
       <c r="F21" s="12"/>
@@ -2656,10 +2631,10 @@
       <c r="A22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="11" t="s">
         <v>107</v>
       </c>
@@ -2670,7 +2645,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="16"/>
     </row>
@@ -2678,10 +2653,10 @@
       <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="11" t="s">
         <v>109</v>
       </c>
@@ -2698,17 +2673,17 @@
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="12"/>
       <c r="G24" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" s="16"/>
     </row>
@@ -2716,10 +2691,10 @@
       <c r="A25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="11" t="s">
         <v>110</v>
       </c>
@@ -2732,10 +2707,10 @@
       <c r="A26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="11" t="s">
         <v>107</v>
       </c>
@@ -2752,10 +2727,10 @@
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="11" t="s">
         <v>107</v>
       </c>
@@ -2768,10 +2743,10 @@
       <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="11" t="s">
         <v>112</v>
       </c>
@@ -2784,10 +2759,10 @@
       <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="11" t="s">
         <v>113</v>
       </c>
@@ -2804,10 +2779,10 @@
       <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="11" t="s">
         <v>114</v>
       </c>
@@ -2820,10 +2795,10 @@
       <c r="A31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="11" t="s">
         <v>116</v>
       </c>
@@ -2831,7 +2806,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -2840,10 +2815,10 @@
       <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="11" t="s">
         <v>118</v>
       </c>
@@ -2851,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>126</v>
@@ -2862,8 +2837,8 @@
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="11"/>
       <c r="E33" s="10"/>
       <c r="F33" s="12"/>
@@ -2874,10 +2849,10 @@
       <c r="A34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="11" t="s">
         <v>107</v>
       </c>
@@ -2894,10 +2869,10 @@
       <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="34"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="11" t="s">
         <v>113</v>
       </c>
@@ -2914,17 +2889,17 @@
       <c r="A36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="11" t="s">
         <v>120</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="12"/>
       <c r="G36" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H36" s="16"/>
     </row>
@@ -2932,10 +2907,10 @@
       <c r="A37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="34"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="11" t="s">
         <v>121</v>
       </c>
@@ -2943,7 +2918,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -2952,10 +2927,10 @@
       <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="34"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="11" t="s">
         <v>111</v>
       </c>
@@ -2968,16 +2943,16 @@
       <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="34"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -2986,10 +2961,10 @@
       <c r="A40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="11" t="s">
         <v>122</v>
       </c>
@@ -2997,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -3006,10 +2981,10 @@
       <c r="A41" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="34"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="11" t="s">
         <v>118</v>
       </c>
@@ -3017,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -3026,8 +3001,8 @@
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="11"/>
       <c r="E42" s="10"/>
       <c r="F42" s="12"/>
@@ -3038,10 +3013,10 @@
       <c r="A43" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="34"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="11" t="s">
         <v>107</v>
       </c>
@@ -3052,7 +3027,7 @@
         <v>108</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H43" s="16"/>
     </row>
@@ -3060,10 +3035,10 @@
       <c r="A44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="34"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="11" t="s">
         <v>124</v>
       </c>
@@ -3071,7 +3046,7 @@
         <v>30</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -3080,10 +3055,10 @@
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="11" t="s">
         <v>124</v>
       </c>
@@ -3091,7 +3066,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -3100,10 +3075,10 @@
       <c r="A46" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="34"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="11" t="s">
         <v>124</v>
       </c>
@@ -3120,10 +3095,10 @@
       <c r="A47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="34"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="11" t="s">
         <v>114</v>
       </c>
@@ -3136,10 +3111,10 @@
       <c r="A48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="1" t="s">
         <v>116</v>
       </c>
@@ -3147,17 +3122,17 @@
         <v>35</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8" s="14" customFormat="1" ht="102" customHeight="1">
       <c r="A49" s="15"/>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="34"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="8"/>
@@ -3166,23 +3141,22 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
@@ -3199,22 +3173,23 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
